--- a/data/trans_camb/IP41-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,24</t>
+          <t>-6,26; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,41</t>
+          <t>-9,97; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-95,1; -87,27</t>
+          <t>-95,29; -87,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 3,95</t>
+          <t>-6,07; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -0,75</t>
+          <t>-11,65; -0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-97,65; -90,53</t>
+          <t>-97,79; -90,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,02</t>
+          <t>-4,09; 3,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,44</t>
+          <t>-8,9; -0,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-95,58; -90,07</t>
+          <t>-95,68; -89,89</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,01</t>
+          <t>-6,66; 5,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 2,7</t>
+          <t>-10,56; 2,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,26</t>
+          <t>-6,33; 3,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -0,82</t>
+          <t>-11,97; -0,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,31</t>
+          <t>-4,26; 3,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -0,69</t>
+          <t>-9,37; -0,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 0,5</t>
+          <t>-7,57; 0,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,3; -5,08</t>
+          <t>-14,36; -5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-95,32; -89,99</t>
+          <t>-95,33; -90,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 1,19</t>
+          <t>-7,78; 1,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,87</t>
+          <t>-9,23; 0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,44; -87,49</t>
+          <t>-93,5; -86,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,22</t>
+          <t>-6,5; -0,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -3,95</t>
+          <t>-10,39; -3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-93,66; -89,56</t>
+          <t>-93,78; -89,74</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,52</t>
+          <t>-8,05; 0,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -5,66</t>
+          <t>-15,19; -5,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,36</t>
+          <t>-8,5; 1,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,98</t>
+          <t>-10,03; 0,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,25</t>
+          <t>-7,06; -0,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -4,38</t>
+          <t>-11,14; -3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 2,1</t>
+          <t>-9,14; 2,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -4,66</t>
+          <t>-16,86; -4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-95,22; -87,82</t>
+          <t>-95,41; -88,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,72</t>
+          <t>-3,83; 8,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 1,1</t>
+          <t>-12,32; 1,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-90,27; -79,7</t>
+          <t>-89,9; -79,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,99</t>
+          <t>-5,07; 3,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -3,95</t>
+          <t>-13,11; -4,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-92,24; -85,58</t>
+          <t>-92,03; -85,66</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,3</t>
+          <t>-9,85; 1,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -5,18</t>
+          <t>-17,97; -5,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 11,96</t>
+          <t>-4,3; 11,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 1,36</t>
+          <t>-14,29; 1,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,63</t>
+          <t>-5,51; 4,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -4,68</t>
+          <t>-14,48; -4,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -2,48</t>
+          <t>-13,82; -3,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -2,33</t>
+          <t>-14,54; -3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-94,84; -88,66</t>
+          <t>-94,79; -88,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,27</t>
+          <t>-9,93; -0,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -4,77</t>
+          <t>-16,05; -4,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-96,01; -89,95</t>
+          <t>-95,75; -89,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -3,2</t>
+          <t>-10,24; -3,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,3; -5,49</t>
+          <t>-13,49; -5,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-94,65; -90,37</t>
+          <t>-94,43; -90,25</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -2,73</t>
+          <t>-14,88; -3,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -2,72</t>
+          <t>-15,56; -3,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -0,47</t>
+          <t>-10,62; -0,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -5,27</t>
+          <t>-17,0; -5,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -3,56</t>
+          <t>-10,98; -3,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -6,06</t>
+          <t>-14,39; -6,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -1,74</t>
+          <t>-6,72; -1,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,0</t>
+          <t>-11,04; -5,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -90,8</t>
+          <t>-93,99; -90,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,59</t>
+          <t>-4,54; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -4,12</t>
+          <t>-9,94; -4,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -89,08</t>
+          <t>-92,8; -89,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,32</t>
+          <t>-4,88; -1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -5,77</t>
+          <t>-9,68; -5,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -90,57</t>
+          <t>-92,89; -90,46</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,89</t>
+          <t>-7,19; -1,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -6,52</t>
+          <t>-11,84; -6,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,63</t>
+          <t>-4,93; 0,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,54</t>
+          <t>-10,71; -4,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -1,45</t>
+          <t>-5,28; -1,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -6,34</t>
+          <t>-10,48; -6,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP41-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-6,28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-94,97</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,55</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,69</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-91,78</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-94,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 5,08</t>
+          <t>-5,32; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 2,19</t>
+          <t>-11,71; -0,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-95,29; -87,36</t>
+          <t>-97,62; -90,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 3,65</t>
+          <t>-6,25; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -0,6</t>
+          <t>-10,61; 1,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-97,79; -90,56</t>
+          <t>-95,0; -86,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,03</t>
+          <t>-3,73; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; -0,65</t>
+          <t>-8,73; -0,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-95,68; -89,89</t>
+          <t>-95,76; -90,55</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-6,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-0,6%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-4,02%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,98%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 5,77</t>
+          <t>-5,42; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 2,5</t>
+          <t>-12,12; -1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,95</t>
+          <t>-6,65; 5,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -0,7</t>
+          <t>-11,3; 1,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,29</t>
+          <t>-3,92; 3,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -0,71</t>
+          <t>-9,3; -0,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-90,72</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-3,62</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-9,71</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-92,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-90,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,49</t>
+          <t>-7,56; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -5,1</t>
+          <t>-8,76; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-95,33; -90,31</t>
+          <t>-93,39; -87,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,58</t>
+          <t>-7,5; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,73</t>
+          <t>-14,67; -5,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,5; -86,97</t>
+          <t>-95,33; -89,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -0,45</t>
+          <t>-6,41; -0,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -3,61</t>
+          <t>-10,49; -3,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-93,78; -89,74</t>
+          <t>-93,74; -89,8</t>
         </is>
       </c>
     </row>
@@ -954,27 +954,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-3,9%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-10,44%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 0,39</t>
+          <t>-8,12; 1,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -5,42</t>
+          <t>-9,4; 0,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,83</t>
+          <t>-7,98; 0,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 0,82</t>
+          <t>-15,49; -5,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,06; -0,54</t>
+          <t>-6,9; -0,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -3,98</t>
+          <t>-11,21; -4,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-85,34</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-10,64</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-92,27</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-5,93</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-85,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 2,05</t>
+          <t>-3,37; 9,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,94</t>
+          <t>-13,14; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-95,41; -88,06</t>
+          <t>-89,68; -79,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 8,91</t>
+          <t>-8,64; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 1,11</t>
+          <t>-16,35; -5,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-89,9; -79,69</t>
+          <t>-95,38; -88,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 3,66</t>
+          <t>-4,95; 3,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -4,07</t>
+          <t>-13,26; -3,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-92,03; -85,66</t>
+          <t>-91,7; -85,66</t>
         </is>
       </c>
     </row>
@@ -1170,27 +1170,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-3,8%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-11,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-6,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 1,99</t>
+          <t>-3,83; 11,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -5,55</t>
+          <t>-14,86; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 11,07</t>
+          <t>-9,26; 1,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 1,31</t>
+          <t>-17,36; -5,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,28</t>
+          <t>-5,37; 3,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -4,76</t>
+          <t>-14,64; -4,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-5,36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-10,23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-93,24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-8,21</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-8,4</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>-92,08</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-93,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -3,06</t>
+          <t>-10,37; -0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -3,25</t>
+          <t>-15,82; -4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-94,79; -88,68</t>
+          <t>-95,65; -89,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,2</t>
+          <t>-14,0; -3,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,05; -4,87</t>
+          <t>-14,7; -3,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-95,75; -89,73</t>
+          <t>-94,8; -88,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -3,23</t>
+          <t>-10,57; -3,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -5,55</t>
+          <t>-14,0; -5,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-94,43; -90,25</t>
+          <t>-94,64; -90,51</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-5,75%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-8,92%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-9,13%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-5,75%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-10,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -3,44</t>
+          <t>-10,99; -0,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -3,5</t>
+          <t>-16,72; -5,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -0,23</t>
+          <t>-15,06; -3,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,0; -5,28</t>
+          <t>-15,79; -3,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -3,58</t>
+          <t>-11,41; -3,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,13</t>
+          <t>-14,88; -5,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,9</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-91,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-4,1</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-8,63</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>-92,38</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-91,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -1,53</t>
+          <t>-4,59; 0,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -5,77</t>
+          <t>-9,74; -3,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-93,99; -90,74</t>
+          <t>-92,76; -89,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 0,53</t>
+          <t>-6,73; -1,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -4,31</t>
+          <t>-11,34; -5,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-92,8; -89,26</t>
+          <t>-93,89; -90,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -1,22</t>
+          <t>-5,02; -1,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -5,97</t>
+          <t>-9,82; -5,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-92,89; -90,46</t>
+          <t>-92,95; -90,5</t>
         </is>
       </c>
     </row>
@@ -1602,27 +1602,27 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-4,44%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-9,34%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-7,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -1,68</t>
+          <t>-5,01; 0,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -6,23</t>
+          <t>-10,58; -4,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,58</t>
+          <t>-7,27; -1,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -4,72</t>
+          <t>-12,22; -6,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -1,33</t>
+          <t>-5,4; -1,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -6,56</t>
+          <t>-10,64; -6,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
